--- a/Music/AI/Research/Bands.xlsx
+++ b/Music/AI/Research/Bands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleva\source\repos\Music\Music\Music\AI\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleva\source\repos\Music\Music\AI\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{978A4A40-8702-409A-BDD9-13C797C5CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49345FA6-0FA1-4BA4-BBE2-3D8C888F2AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E41F20CB-3783-410D-BBDD-58FB3573C4CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>Dance-pop</t>
   </si>
@@ -318,6 +318,159 @@
   </si>
   <si>
     <t>Bryan Adams</t>
+  </si>
+  <si>
+    <t>azz rock/pop rock,Chicago</t>
+  </si>
+  <si>
+    <t>Pop/traditional pop,Connie Francis</t>
+  </si>
+  <si>
+    <t>Rock &amp; roll/twist,Chubby Checker</t>
+  </si>
+  <si>
+    <t>Alternative rock/folk rock,Counting Crows</t>
+  </si>
+  <si>
+    <t>Power pop/hard rock,Cheap Trick</t>
+  </si>
+  <si>
+    <t>Folk rock/country rock,Crosby, Stills, Nash &amp; Young</t>
+  </si>
+  <si>
+    <t>Soft rock/folk rock,Dan Fogelberg</t>
+  </si>
+  <si>
+    <t>Pop/R&amp;B,Destiny’s Child</t>
+  </si>
+  <si>
+    <t>Folk rock/singer-songwriter,Don McLean</t>
+  </si>
+  <si>
+    <t>Blues rock/soft rock,Dave Mason</t>
+  </si>
+  <si>
+    <t>New wave/post-punk,Divinyls</t>
+  </si>
+  <si>
+    <t>Soft rock/pop rock,Dr. Hook</t>
+  </si>
+  <si>
+    <t>Hip hop/hardcore rap,DMX</t>
+  </si>
+  <si>
+    <t>Hip hop/west coast rap,Dr. Dre</t>
+  </si>
+  <si>
+    <t>Synth-pop/new wave,Depeche Mode</t>
+  </si>
+  <si>
+    <t>Disco/pop,Donna Summer</t>
+  </si>
+  <si>
+    <t>Country/country pop,Dixie Chicks</t>
+  </si>
+  <si>
+    <t>Alternative rock/jam rock,Dave Matthews Band</t>
+  </si>
+  <si>
+    <t>Art rock/glam rock,David Bowie</t>
+  </si>
+  <si>
+    <t>Hard rock/glam metal,David Lee Roth</t>
+  </si>
+  <si>
+    <t>Hard rock/heavy metal,Deep Purple</t>
+  </si>
+  <si>
+    <t>Hard rock/glam metal,Def Leppard</t>
+  </si>
+  <si>
+    <t>New wave/synth-punk,Devo</t>
+  </si>
+  <si>
+    <t>Roots rock/blues rock,Dire Straits</t>
+  </si>
+  <si>
+    <t>Soft rock/yacht rock,The Doobie Brothers</t>
+  </si>
+  <si>
+    <t>New wave/synth-pop,Duran Duran</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Funk/soul,Earth Wind &amp; Fire</t>
+  </si>
+  <si>
+    <t>Pop rock/soft rock,Elton John</t>
+  </si>
+  <si>
+    <t>R&amp;B/pop,En Vogue</t>
+  </si>
+  <si>
+    <t>Latin pop/pop,Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>New age/celtic ambient,Enya</t>
+  </si>
+  <si>
+    <t>Alternative rock/pop punk,Eve 6</t>
+  </si>
+  <si>
+    <t>Alternative rock/post-grunge,Everclear</t>
+  </si>
+  <si>
+    <t>Hip hop/rap rock,Everlast</t>
+  </si>
+  <si>
+    <t>Blues rock/hard rock,Edgar Winter</t>
+  </si>
+  <si>
+    <t>Pop/soft rock,Edison Lighthouse</t>
+  </si>
+  <si>
+    <t>Hip hop/rap,Eminem</t>
+  </si>
+  <si>
+    <t>Reggae/pop rock,Eddie Grant</t>
+  </si>
+  <si>
+    <t>Bluegrass/country,Earl Scruggs</t>
+  </si>
+  <si>
+    <t>Progressive rock/symphonic rock,ELO</t>
+  </si>
+  <si>
+    <t>Pop rock/heartland rock,Eddie Money</t>
+  </si>
+  <si>
+    <t>Rock &amp; roll/rockabilly,Elvis Presley</t>
+  </si>
+  <si>
+    <t>Progressive rock/art rock,Emerson Lake and Palmer</t>
+  </si>
+  <si>
+    <t>Blues rock/classic rock,Eric Clapton</t>
+  </si>
+  <si>
+    <t>New wave/punk rock,Elvis Costello</t>
+  </si>
+  <si>
+    <t>Pop/folk pop,Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Gothic metal/alternative metal,Evanescence</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -701,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F902B1D-688D-4CF4-A6F1-BC054018FADE}">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,342 +1284,448 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
       <c r="B56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
       <c r="B57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
       <c r="B58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
       <c r="B59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
       <c r="B60" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
       <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" t="s">
-        <v>43</v>
+      <c r="A62" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
       <c r="B63" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
       <c r="B64" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
       <c r="B65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
       <c r="B66" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
       <c r="B67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
       <c r="B68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
       <c r="B69" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
       <c r="B71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
       <c r="B72" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
       <c r="B73" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
       <c r="B74" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
       <c r="B75" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
       <c r="B76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
       <c r="B77" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
       <c r="B78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
       <c r="B79" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
       <c r="B80" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B81" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
       <c r="B82" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
       <c r="B83" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
       <c r="B84" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
       <c r="B85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
       <c r="B86" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" t="s">
+        <v>128</v>
+      </c>
       <c r="B87" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
       <c r="B88" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" t="s">
+        <v>130</v>
+      </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
       <c r="B90" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
       <c r="B91" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
       <c r="B92" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
       <c r="B95" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
       <c r="B96" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>138</v>
+      </c>
       <c r="B97" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>139</v>
+      </c>
       <c r="B98" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>140</v>
+      </c>
       <c r="B99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
       <c r="B100" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
       <c r="B101" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
       <c r="B102" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
       <c r="B103" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>43</v>
       </c>
@@ -1811,24 +2070,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B183">
-    <sortCondition ref="A1:A183"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B180">
+    <sortCondition ref="A1:A180"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
